--- a/projetos/preProjetoRenas/docs/cronograma.xlsx
+++ b/projetos/preProjetoRenas/docs/cronograma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\GITHUB\opa\SENAI2023\projetos\preProjetoRenas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\GITHUB\opa\SENAI2023\projetos\preProjetoRenas\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A059C9FB-E962-4D1E-AA9B-77E61DE0FA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FEB375-4EF9-4FED-930E-B420B8D18706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE01D99-ADF4-48B0-90F0-832FCB778486}"/>
+    <workbookView xWindow="1860" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{BAE01D99-ADF4-48B0-90F0-832FCB778486}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>TAREFAS</t>
   </si>
@@ -65,27 +65,9 @@
     <t>FrontEnd</t>
   </si>
   <si>
-    <t>RF001</t>
-  </si>
-  <si>
-    <t>RF002</t>
-  </si>
-  <si>
     <t>Planejamento</t>
   </si>
   <si>
-    <t>RF004</t>
-  </si>
-  <si>
-    <t>NF001</t>
-  </si>
-  <si>
-    <t>NF002</t>
-  </si>
-  <si>
-    <t>NF004</t>
-  </si>
-  <si>
     <t>Mobile</t>
   </si>
   <si>
@@ -117,12 +99,6 @@
   </si>
   <si>
     <t>DashBoard</t>
-  </si>
-  <si>
-    <t>RF003</t>
-  </si>
-  <si>
-    <t>NF003</t>
   </si>
   <si>
     <t>Testes de Funcionalidade</t>
@@ -147,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +161,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -286,20 +276,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,16 +316,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6692D3-5507-408D-94A9-33B10E8CB829}">
   <dimension ref="C2:AP39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AN11" sqref="AN11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,198 +650,200 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="36" width="3" customWidth="1"/>
+    <col min="6" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
     </row>
     <row r="5" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
     </row>
     <row r="6" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="21">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="10">
         <v>15</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="10">
         <v>16</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="10">
         <v>17</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="10">
         <v>18</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="10">
         <v>19</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="10">
         <v>20</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="10">
         <v>21</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="10">
         <v>22</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="10">
         <v>23</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="10">
         <v>24</v>
       </c>
-      <c r="P6" s="21">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="21">
+      <c r="P6" s="10">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="10">
         <v>26</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="10">
         <v>27</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="10">
         <v>28</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="10">
         <v>1</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="10">
         <v>2</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="10">
         <v>3</v>
       </c>
-      <c r="W6" s="21">
+      <c r="W6" s="10">
         <v>4</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="10">
         <v>5</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="Y6" s="10">
         <v>6</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="Z6" s="10">
         <v>7</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AA6" s="10">
         <v>8</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AB6" s="10">
         <v>9</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="10">
         <v>10</v>
       </c>
-      <c r="AD6" s="21">
+      <c r="AD6" s="10">
         <v>11</v>
       </c>
-      <c r="AE6" s="21">
+      <c r="AE6" s="10">
         <v>12</v>
       </c>
-      <c r="AF6" s="21">
+      <c r="AF6" s="10">
         <v>13</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AG6" s="10">
         <v>14</v>
       </c>
-      <c r="AH6" s="21">
+      <c r="AH6" s="10">
         <v>15</v>
       </c>
-      <c r="AI6" s="21">
+      <c r="AI6" s="10">
         <v>16</v>
       </c>
-      <c r="AJ6" s="21">
+      <c r="AJ6" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -873,21 +872,20 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AN7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="12"/>
+      <c r="AN7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP7" s="9"/>
     </row>
     <row r="8" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="C8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -916,21 +914,20 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AN8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="7"/>
+      <c r="AN8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP8" s="6"/>
     </row>
     <row r="9" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="4"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -961,15 +958,15 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="4"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -999,13 +996,13 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="C11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="4"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1036,15 +1033,15 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1074,23 +1071,23 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1110,18 +1107,19 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
+      <c r="AL13" s="11"/>
     </row>
     <row r="14" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1150,23 +1148,23 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="C15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1188,23 +1186,23 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1226,11 +1224,11 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1238,19 +1236,19 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -1264,11 +1262,11 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="C18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1276,12 +1274,12 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="R18" s="3"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1302,11 +1300,11 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1315,13 +1313,13 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -1340,11 +1338,11 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1355,13 +1353,11 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -1378,11 +1374,11 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1394,15 +1390,12 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -1416,11 +1409,11 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C22" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="C22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1429,17 +1422,16 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -1452,11 +1444,11 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="C23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1473,15 +1465,15 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -1490,11 +1482,11 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="C24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1511,11 +1503,11 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="3"/>
+      <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="Z24" s="3"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
@@ -1527,11 +1519,11 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="C25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1549,12 +1541,12 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -1565,11 +1557,11 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C26" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1588,13 +1580,13 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
@@ -1603,11 +1595,11 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="C27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1626,13 +1618,13 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
@@ -1641,475 +1633,455 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
+      <c r="C28" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C29" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
+      <c r="C29" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
+      <c r="C30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="8"/>
     </row>
     <row r="31" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C31" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
+      <c r="C31" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="3"/>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C32" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
     </row>
     <row r="33" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C33" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
     </row>
     <row r="34" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C34" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
     </row>
     <row r="35" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C35" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
     </row>
     <row r="36" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C36" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="9"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
     </row>
     <row r="37" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C37" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
     </row>
     <row r="38" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C38" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="9"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="15"/>
     </row>
     <row r="39" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C39" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="3"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F5:S5"/>
-    <mergeCell ref="T5:AJ5"/>
-    <mergeCell ref="F4:AJ4"/>
-    <mergeCell ref="C4:E6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C27:E27"/>
+  <mergeCells count="33">
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C21:E21"/>
@@ -2121,20 +2093,20 @@
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F5:S5"/>
+    <mergeCell ref="T5:AJ5"/>
+    <mergeCell ref="F4:AJ4"/>
+    <mergeCell ref="C4:E6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/projetos/preProjetoRenas/docs/cronograma.xlsx
+++ b/projetos/preProjetoRenas/docs/cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\GITHUB\opa\SENAI2023\projetos\preProjetoRenas\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FEB375-4EF9-4FED-930E-B420B8D18706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26D0ACF-CED8-404A-8862-FEA543021520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{BAE01D99-ADF4-48B0-90F0-832FCB778486}"/>
+    <workbookView xWindow="3135" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{BAE01D99-ADF4-48B0-90F0-832FCB778486}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -295,8 +303,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,18 +333,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +651,7 @@
   <dimension ref="C2:AP39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,89 +667,89 @@
     <row r="2" spans="3:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
     </row>
     <row r="5" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
     </row>
     <row r="6" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="10">
         <v>15</v>
       </c>
@@ -836,11 +845,11 @@
       </c>
     </row>
     <row r="7" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -878,11 +887,11 @@
       <c r="AP7" s="9"/>
     </row>
     <row r="8" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -920,11 +929,11 @@
       <c r="AP8" s="6"/>
     </row>
     <row r="9" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -958,11 +967,11 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="9"/>
@@ -996,11 +1005,11 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -1033,11 +1042,11 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1071,11 +1080,11 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1084,8 +1093,8 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
@@ -1110,11 +1119,11 @@
       <c r="AL13" s="11"/>
     </row>
     <row r="14" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1148,11 +1157,11 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1161,8 +1170,8 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="1"/>
@@ -1184,13 +1193,14 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
+      <c r="AM15" s="26"/>
     </row>
     <row r="16" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1199,8 +1209,8 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="6"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="1"/>
@@ -1224,11 +1234,11 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1262,11 +1272,11 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1300,11 +1310,11 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1338,11 +1348,11 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1374,11 +1384,11 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1409,11 +1419,11 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1444,11 +1454,11 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1482,11 +1492,11 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1519,11 +1529,11 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1557,11 +1567,11 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1595,11 +1605,11 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1633,11 +1643,11 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1671,11 +1681,11 @@
       <c r="AJ28" s="4"/>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="13"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1709,11 +1719,11 @@
       <c r="AJ29" s="4"/>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="14"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1747,11 +1757,11 @@
       <c r="AJ30" s="8"/>
     </row>
     <row r="31" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1785,9 +1795,9 @@
       <c r="AJ31" s="3"/>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -1821,9 +1831,9 @@
       <c r="AJ32" s="15"/>
     </row>
     <row r="33" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -1857,9 +1867,9 @@
       <c r="AJ33" s="15"/>
     </row>
     <row r="34" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -1893,9 +1903,9 @@
       <c r="AJ34" s="15"/>
     </row>
     <row r="35" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2074,16 +2084,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F5:S5"/>
+    <mergeCell ref="T5:AJ5"/>
+    <mergeCell ref="F4:AJ4"/>
+    <mergeCell ref="C4:E6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C8:E8"/>
@@ -2096,17 +2103,20 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F5:S5"/>
-    <mergeCell ref="T5:AJ5"/>
-    <mergeCell ref="F4:AJ4"/>
-    <mergeCell ref="C4:E6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/projetos/preProjetoRenas/docs/cronograma.xlsx
+++ b/projetos/preProjetoRenas/docs/cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\GITHUB\opa\SENAI2023\projetos\preProjetoRenas\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26D0ACF-CED8-404A-8862-FEA543021520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7AEC1A-C988-4FC9-89C2-2EE76D97B0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3135" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{BAE01D99-ADF4-48B0-90F0-832FCB778486}"/>
   </bookViews>
@@ -303,21 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,7 +319,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6692D3-5507-408D-94A9-33B10E8CB829}">
   <dimension ref="C2:AP39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,89 +667,89 @@
     <row r="2" spans="3:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
     </row>
     <row r="5" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="23" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
     </row>
     <row r="6" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="10">
         <v>15</v>
       </c>
@@ -845,11 +845,11 @@
       </c>
     </row>
     <row r="7" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -887,11 +887,11 @@
       <c r="AP7" s="9"/>
     </row>
     <row r="8" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -929,11 +929,11 @@
       <c r="AP8" s="6"/>
     </row>
     <row r="9" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -967,11 +967,11 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="9"/>
@@ -1005,11 +1005,11 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -1042,11 +1042,11 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1080,11 +1080,11 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1095,7 +1095,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1119,11 +1119,11 @@
       <c r="AL13" s="11"/>
     </row>
     <row r="14" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1157,11 +1157,11 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1172,7 +1172,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1193,14 +1193,14 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-      <c r="AM15" s="26"/>
+      <c r="AM15" s="16"/>
     </row>
     <row r="16" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1211,7 +1211,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="3"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1234,11 +1234,11 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1251,9 +1251,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -1272,11 +1272,11 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1289,7 +1289,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="3"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1310,11 +1310,11 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1327,8 +1327,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="3"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -1348,11 +1348,11 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1384,11 +1384,11 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1419,11 +1419,11 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1454,11 +1454,11 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1492,11 +1492,11 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1529,11 +1529,11 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1567,11 +1567,11 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1605,11 +1605,11 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1643,11 +1643,11 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1681,11 +1681,11 @@
       <c r="AJ28" s="4"/>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="13"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1719,11 +1719,11 @@
       <c r="AJ29" s="4"/>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="14"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1757,11 +1757,11 @@
       <c r="AJ30" s="8"/>
     </row>
     <row r="31" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1795,9 +1795,9 @@
       <c r="AJ31" s="3"/>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -1831,9 +1831,9 @@
       <c r="AJ32" s="15"/>
     </row>
     <row r="33" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -1867,9 +1867,9 @@
       <c r="AJ33" s="15"/>
     </row>
     <row r="34" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -1903,9 +1903,9 @@
       <c r="AJ34" s="15"/>
     </row>
     <row r="35" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2084,13 +2084,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F5:S5"/>
-    <mergeCell ref="T5:AJ5"/>
-    <mergeCell ref="F4:AJ4"/>
-    <mergeCell ref="C4:E6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C8:E8"/>
@@ -2105,18 +2110,13 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F5:S5"/>
+    <mergeCell ref="T5:AJ5"/>
+    <mergeCell ref="F4:AJ4"/>
+    <mergeCell ref="C4:E6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/projetos/preProjetoRenas/docs/cronograma.xlsx
+++ b/projetos/preProjetoRenas/docs/cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\GITHUB\opa\SENAI2023\projetos\preProjetoRenas\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7AEC1A-C988-4FC9-89C2-2EE76D97B0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4BF981-2F9A-4FA2-B864-C5372E7E3364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3135" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{BAE01D99-ADF4-48B0-90F0-832FCB778486}"/>
   </bookViews>
@@ -304,6 +304,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,21 +333,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6692D3-5507-408D-94A9-33B10E8CB829}">
   <dimension ref="C2:AP39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19:S19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AO22" sqref="AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,89 +667,89 @@
     <row r="2" spans="3:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
     </row>
     <row r="5" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
     </row>
     <row r="6" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="10">
         <v>15</v>
       </c>
@@ -845,11 +845,11 @@
       </c>
     </row>
     <row r="7" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -887,11 +887,11 @@
       <c r="AP7" s="9"/>
     </row>
     <row r="8" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -929,11 +929,11 @@
       <c r="AP8" s="6"/>
     </row>
     <row r="9" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -967,11 +967,11 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="9"/>
@@ -1005,11 +1005,11 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -1042,11 +1042,11 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1080,11 +1080,11 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1119,11 +1119,11 @@
       <c r="AL13" s="11"/>
     </row>
     <row r="14" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1157,11 +1157,11 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1196,11 +1196,11 @@
       <c r="AM15" s="16"/>
     </row>
     <row r="16" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1234,11 +1234,11 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1272,11 +1272,11 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1310,11 +1310,11 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1330,11 +1330,11 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -1348,11 +1348,11 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1384,11 +1384,11 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1419,11 +1419,11 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1454,11 +1454,11 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1492,11 +1492,11 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1529,11 +1529,11 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1567,11 +1567,11 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1605,11 +1605,11 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1643,11 +1643,11 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1681,11 +1681,11 @@
       <c r="AJ28" s="4"/>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="13"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1719,11 +1719,11 @@
       <c r="AJ29" s="4"/>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="14"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1757,11 +1757,11 @@
       <c r="AJ30" s="8"/>
     </row>
     <row r="31" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1795,9 +1795,9 @@
       <c r="AJ31" s="3"/>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -1831,9 +1831,9 @@
       <c r="AJ32" s="15"/>
     </row>
     <row r="33" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -1867,9 +1867,9 @@
       <c r="AJ33" s="15"/>
     </row>
     <row r="34" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -1903,9 +1903,9 @@
       <c r="AJ34" s="15"/>
     </row>
     <row r="35" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2084,18 +2084,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F5:S5"/>
+    <mergeCell ref="T5:AJ5"/>
+    <mergeCell ref="F4:AJ4"/>
+    <mergeCell ref="C4:E6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C8:E8"/>
@@ -2110,13 +2105,18 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F5:S5"/>
-    <mergeCell ref="T5:AJ5"/>
-    <mergeCell ref="F4:AJ4"/>
-    <mergeCell ref="C4:E6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/projetos/preProjetoRenas/docs/cronograma.xlsx
+++ b/projetos/preProjetoRenas/docs/cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\GITHUB\opa\SENAI2023\projetos\preProjetoRenas\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4BF981-2F9A-4FA2-B864-C5372E7E3364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C74A880-3034-48DC-86D7-FDD2D4A04241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{BAE01D99-ADF4-48B0-90F0-832FCB778486}"/>
+    <workbookView xWindow="3105" yWindow="1140" windowWidth="21630" windowHeight="11385" xr2:uid="{BAE01D99-ADF4-48B0-90F0-832FCB778486}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -304,21 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,6 +318,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,7 +651,7 @@
   <dimension ref="C2:AP39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AO22" sqref="AO22"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,89 +667,89 @@
     <row r="2" spans="3:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="24" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
     </row>
     <row r="5" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="22" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="24" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
     </row>
     <row r="6" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="10">
         <v>15</v>
       </c>
@@ -845,11 +845,11 @@
       </c>
     </row>
     <row r="7" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -865,7 +865,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="4"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -887,11 +887,11 @@
       <c r="AP7" s="9"/>
     </row>
     <row r="8" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -907,7 +907,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -929,11 +929,11 @@
       <c r="AP8" s="6"/>
     </row>
     <row r="9" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -949,7 +949,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="U9" s="4"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -967,11 +967,11 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="9"/>
@@ -987,7 +987,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="U10" s="4"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -1005,11 +1005,11 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -1024,7 +1024,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+      <c r="U11" s="4"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -1042,11 +1042,11 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1062,7 +1062,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="U12" s="4"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -1080,11 +1080,11 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1100,7 +1100,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="U13" s="4"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -1119,11 +1119,11 @@
       <c r="AL13" s="11"/>
     </row>
     <row r="14" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1139,7 +1139,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="U14" s="4"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -1157,11 +1157,11 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1177,7 +1177,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="U15" s="4"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -1196,11 +1196,11 @@
       <c r="AM15" s="16"/>
     </row>
     <row r="16" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="U16" s="4"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -1234,11 +1234,11 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1254,7 +1254,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="3"/>
+      <c r="U17" s="2"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -1272,11 +1272,11 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1292,7 +1292,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="U18" s="4"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -1310,11 +1310,11 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1329,13 +1329,13 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="1"/>
+      <c r="Z19" s="4"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -1348,11 +1348,11 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1365,8 +1365,10 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
       <c r="V20" s="3"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -1384,11 +1386,11 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1403,7 +1405,10 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="W21" s="3"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="6"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="1"/>
@@ -1419,11 +1424,11 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1454,11 +1459,11 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1492,11 +1497,11 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1529,11 +1534,11 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1567,11 +1572,11 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1605,11 +1610,11 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1643,11 +1648,11 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1681,11 +1686,11 @@
       <c r="AJ28" s="4"/>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="13"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1719,11 +1724,11 @@
       <c r="AJ29" s="4"/>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="14"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1757,11 +1762,11 @@
       <c r="AJ30" s="8"/>
     </row>
     <row r="31" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1795,9 +1800,9 @@
       <c r="AJ31" s="3"/>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -1831,9 +1836,9 @@
       <c r="AJ32" s="15"/>
     </row>
     <row r="33" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -1867,9 +1872,9 @@
       <c r="AJ33" s="15"/>
     </row>
     <row r="34" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -1903,9 +1908,9 @@
       <c r="AJ34" s="15"/>
     </row>
     <row r="35" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2084,13 +2089,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F5:S5"/>
-    <mergeCell ref="T5:AJ5"/>
-    <mergeCell ref="F4:AJ4"/>
-    <mergeCell ref="C4:E6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C8:E8"/>
@@ -2105,18 +2115,13 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F5:S5"/>
+    <mergeCell ref="T5:AJ5"/>
+    <mergeCell ref="F4:AJ4"/>
+    <mergeCell ref="C4:E6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/projetos/preProjetoRenas/docs/cronograma.xlsx
+++ b/projetos/preProjetoRenas/docs/cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\GITHUB\opa\SENAI2023\projetos\preProjetoRenas\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C74A880-3034-48DC-86D7-FDD2D4A04241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A361780-5788-4F2C-A55C-9EAC0D51ACF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="1140" windowWidth="21630" windowHeight="11385" xr2:uid="{BAE01D99-ADF4-48B0-90F0-832FCB778486}"/>
   </bookViews>
@@ -304,6 +304,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,21 +333,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6692D3-5507-408D-94A9-33B10E8CB829}">
   <dimension ref="C2:AP39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,89 +667,89 @@
     <row r="2" spans="3:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
     </row>
     <row r="5" spans="3:42" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
     </row>
     <row r="6" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="10">
         <v>15</v>
       </c>
@@ -845,11 +845,11 @@
       </c>
     </row>
     <row r="7" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -887,11 +887,11 @@
       <c r="AP7" s="9"/>
     </row>
     <row r="8" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -929,11 +929,11 @@
       <c r="AP8" s="6"/>
     </row>
     <row r="9" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -967,11 +967,11 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="9"/>
@@ -1005,11 +1005,11 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -1042,11 +1042,11 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1080,11 +1080,11 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1119,11 +1119,11 @@
       <c r="AL13" s="11"/>
     </row>
     <row r="14" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1157,11 +1157,11 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1196,11 +1196,11 @@
       <c r="AM15" s="16"/>
     </row>
     <row r="16" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1234,11 +1234,11 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1255,11 +1255,11 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="1"/>
+      <c r="Z17" s="3"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -1272,11 +1272,11 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1310,11 +1310,11 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1331,11 +1331,11 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="4"/>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -1348,11 +1348,11 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1369,7 +1369,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="3"/>
+      <c r="V20" s="2"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -1386,11 +1386,11 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1408,10 +1408,10 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="3"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="2"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="1"/>
+      <c r="Z21" s="3"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -1424,11 +1424,11 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1459,11 +1459,11 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1497,11 +1497,11 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1534,11 +1534,11 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1572,11 +1572,11 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1610,11 +1610,11 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1648,11 +1648,11 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1686,11 +1686,11 @@
       <c r="AJ28" s="4"/>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="13"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1724,11 +1724,11 @@
       <c r="AJ29" s="4"/>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="14"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1762,11 +1762,11 @@
       <c r="AJ30" s="8"/>
     </row>
     <row r="31" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1800,9 +1800,9 @@
       <c r="AJ31" s="3"/>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -1836,9 +1836,9 @@
       <c r="AJ32" s="15"/>
     </row>
     <row r="33" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -1872,9 +1872,9 @@
       <c r="AJ33" s="15"/>
     </row>
     <row r="34" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -1908,9 +1908,9 @@
       <c r="AJ34" s="15"/>
     </row>
     <row r="35" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2089,18 +2089,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F5:S5"/>
+    <mergeCell ref="T5:AJ5"/>
+    <mergeCell ref="F4:AJ4"/>
+    <mergeCell ref="C4:E6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C8:E8"/>
@@ -2115,13 +2110,18 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F5:S5"/>
-    <mergeCell ref="T5:AJ5"/>
-    <mergeCell ref="F4:AJ4"/>
-    <mergeCell ref="C4:E6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
